--- a/docs/VTests.xlsx
+++ b/docs/VTests.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>R</t>
   </si>
@@ -37,6 +38,21 @@
   <si>
     <t>stdev/avg kod jednog od motora iznad 0.05 ili 0.1 -&gt; brzina ispod minimalne (nestabilna brzina)</t>
   </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>TPS/4</t>
+  </si>
 </sst>
 </file>
 
@@ -45,7 +61,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,6 +71,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -82,7 +106,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -90,6 +114,10 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -108,6 +136,440 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>L</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FABF-456C-BCE6-CE835306414D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FABF-456C-BCE6-CE835306414D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2120356783"/>
+        <c:axId val="2120350127"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2120356783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2120350127"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2120350127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2120356783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -452,7 +914,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -877,8 +1339,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -986,11 +1488,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1001,11 +1498,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1037,9 +1529,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1909,7 +2398,558 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6569</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>302173</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>182617</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2237,9 +3277,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>187</v>
+      </c>
+      <c r="C3">
+        <v>194</v>
+      </c>
+      <c r="D3">
+        <v>235</v>
+      </c>
+      <c r="E3">
+        <v>390</v>
+      </c>
+      <c r="F3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>139</v>
+      </c>
+      <c r="C4">
+        <v>154</v>
+      </c>
+      <c r="D4">
+        <v>198</v>
+      </c>
+      <c r="E4">
+        <v>335</v>
+      </c>
+      <c r="F4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6">
+        <v>15</v>
+      </c>
+      <c r="C5" s="6">
+        <v>30</v>
+      </c>
+      <c r="D5" s="6">
+        <v>60</v>
+      </c>
+      <c r="E5" s="6">
+        <v>120</v>
+      </c>
+      <c r="F5" s="6">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
